--- a/results/cu_jgr/15x15/all/cu_jgr_all_15x15_True_2_0.5.xlsx
+++ b/results/cu_jgr/15x15/all/cu_jgr_all_15x15_True_2_0.5.xlsx
@@ -483,16 +483,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01926</v>
+        <v>0.02417</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00963</v>
+        <v>0.01209</v>
       </c>
       <c r="F2" t="n">
-        <v>1.47529</v>
+        <v>2.08992</v>
       </c>
       <c r="G2" t="n">
         <v>0.85</v>
@@ -509,16 +509,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01364</v>
+        <v>0.008869999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00682</v>
+        <v>0.00444</v>
       </c>
       <c r="F3" t="n">
-        <v>1.11679</v>
+        <v>0.94197</v>
       </c>
       <c r="G3" t="n">
         <v>0.85</v>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01114</v>
+        <v>0.0152</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00557</v>
+        <v>0.0076</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11801</v>
+        <v>1.60612</v>
       </c>
       <c r="G4" t="n">
         <v>0.85</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01272</v>
+        <v>0.00974</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00636</v>
+        <v>0.00487</v>
       </c>
       <c r="F5" t="n">
-        <v>1.04795</v>
+        <v>1.21786</v>
       </c>
       <c r="G5" t="n">
         <v>0.85</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01333</v>
+        <v>0.01131</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00666</v>
+        <v>0.00565</v>
       </c>
       <c r="F6" t="n">
-        <v>0.94634</v>
+        <v>0.92723</v>
       </c>
       <c r="G6" t="n">
         <v>0.85</v>
@@ -613,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01315</v>
+        <v>0.019</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00657</v>
+        <v>0.0095</v>
       </c>
       <c r="F7" t="n">
-        <v>1.35369</v>
+        <v>1.37493</v>
       </c>
       <c r="G7" t="n">
         <v>0.85</v>
@@ -639,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D8" t="n">
-        <v>0.009820000000000001</v>
+        <v>0.01666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00491</v>
+        <v>0.008330000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>1.00634</v>
+        <v>1.31682</v>
       </c>
       <c r="G8" t="n">
         <v>0.85</v>
@@ -665,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01322</v>
+        <v>0.0172</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00661</v>
+        <v>0.0086</v>
       </c>
       <c r="F9" t="n">
-        <v>1.08301</v>
+        <v>1.73417</v>
       </c>
       <c r="G9" t="n">
         <v>0.85</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01046</v>
+        <v>0.00674</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00523</v>
+        <v>0.00337</v>
       </c>
       <c r="F10" t="n">
-        <v>0.79439</v>
+        <v>0.77436</v>
       </c>
       <c r="G10" t="n">
         <v>0.85</v>
@@ -717,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00769</v>
+        <v>0.008670000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00384</v>
+        <v>0.00433</v>
       </c>
       <c r="F11" t="n">
-        <v>0.82576</v>
+        <v>0.83829</v>
       </c>
       <c r="G11" t="n">
         <v>0.85</v>
@@ -743,16 +743,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01835</v>
+        <v>0.00603</v>
       </c>
       <c r="E12" t="n">
-        <v>0.009169999999999999</v>
+        <v>0.00301</v>
       </c>
       <c r="F12" t="n">
-        <v>1.62387</v>
+        <v>0.8299800000000001</v>
       </c>
       <c r="G12" t="n">
         <v>0.85</v>
@@ -769,16 +769,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D13" t="n">
-        <v>0.02691</v>
+        <v>0.00734</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01345</v>
+        <v>0.00367</v>
       </c>
       <c r="F13" t="n">
-        <v>2.326</v>
+        <v>0.93408</v>
       </c>
       <c r="G13" t="n">
         <v>0.85</v>
@@ -795,16 +795,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>0.02743</v>
+        <v>0.0113</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01371</v>
+        <v>0.00565</v>
       </c>
       <c r="F14" t="n">
-        <v>2.37145</v>
+        <v>1.07248</v>
       </c>
       <c r="G14" t="n">
         <v>0.85</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01646</v>
+        <v>0.0154</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008229999999999999</v>
+        <v>0.0077</v>
       </c>
       <c r="F15" t="n">
-        <v>1.98642</v>
+        <v>1.43036</v>
       </c>
       <c r="G15" t="n">
         <v>0.85</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0213</v>
+        <v>0.02255</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01065</v>
+        <v>0.01128</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0761</v>
+        <v>2.08744</v>
       </c>
       <c r="G16" t="n">
         <v>0.85</v>
@@ -873,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01073</v>
+        <v>0.009209999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00536</v>
+        <v>0.00461</v>
       </c>
       <c r="F17" t="n">
-        <v>1.53452</v>
+        <v>1.18527</v>
       </c>
       <c r="G17" t="n">
         <v>0.85</v>
@@ -899,16 +899,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01874</v>
+        <v>0.008840000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00937</v>
+        <v>0.00442</v>
       </c>
       <c r="F18" t="n">
-        <v>1.52953</v>
+        <v>1.21135</v>
       </c>
       <c r="G18" t="n">
         <v>0.85</v>
@@ -925,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01328</v>
+        <v>0.01847</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00664</v>
+        <v>0.00924</v>
       </c>
       <c r="F19" t="n">
-        <v>1.45639</v>
+        <v>1.56149</v>
       </c>
       <c r="G19" t="n">
         <v>0.85</v>
@@ -951,16 +951,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01309</v>
+        <v>0.01314</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00654</v>
+        <v>0.00657</v>
       </c>
       <c r="F20" t="n">
-        <v>1.33439</v>
+        <v>1.43721</v>
       </c>
       <c r="G20" t="n">
         <v>0.85</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D21" t="n">
-        <v>0.008319999999999999</v>
+        <v>0.01682</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00416</v>
+        <v>0.008410000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.90206</v>
+        <v>1.91229</v>
       </c>
       <c r="G21" t="n">
         <v>0.85</v>
@@ -1003,16 +1003,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02456</v>
+        <v>0.02957</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01228</v>
+        <v>0.01479</v>
       </c>
       <c r="F22" t="n">
-        <v>1.83979</v>
+        <v>1.59877</v>
       </c>
       <c r="G22" t="n">
         <v>0.15</v>
@@ -1029,16 +1029,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="D23" t="n">
-        <v>0.05407</v>
+        <v>0.04021</v>
       </c>
       <c r="E23" t="n">
-        <v>0.02703</v>
+        <v>0.02011</v>
       </c>
       <c r="F23" t="n">
-        <v>2.68937</v>
+        <v>3.16076</v>
       </c>
       <c r="G23" t="n">
         <v>0.15</v>
@@ -1055,16 +1055,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" t="n">
-        <v>0.04931</v>
+        <v>0.03458</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02465</v>
+        <v>0.01729</v>
       </c>
       <c r="F24" t="n">
-        <v>3.32459</v>
+        <v>2.41124</v>
       </c>
       <c r="G24" t="n">
         <v>0.15</v>
@@ -1081,16 +1081,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03918</v>
+        <v>0.03435</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01959</v>
+        <v>0.01718</v>
       </c>
       <c r="F25" t="n">
-        <v>3.246</v>
+        <v>1.69867</v>
       </c>
       <c r="G25" t="n">
         <v>0.15</v>
@@ -1107,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D26" t="n">
-        <v>0.02249</v>
+        <v>0.03714</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01125</v>
+        <v>0.01857</v>
       </c>
       <c r="F26" t="n">
-        <v>1.83352</v>
+        <v>1.87474</v>
       </c>
       <c r="G26" t="n">
         <v>0.15</v>
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02428</v>
+        <v>0.04096</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01214</v>
+        <v>0.02048</v>
       </c>
       <c r="F27" t="n">
-        <v>1.69915</v>
+        <v>2.89136</v>
       </c>
       <c r="G27" t="n">
         <v>0.15</v>
@@ -1159,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02751</v>
+        <v>0.04305</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01375</v>
+        <v>0.02152</v>
       </c>
       <c r="F28" t="n">
-        <v>1.45421</v>
+        <v>3.22812</v>
       </c>
       <c r="G28" t="n">
         <v>0.15</v>
@@ -1185,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03095</v>
+        <v>0.04249</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01548</v>
+        <v>0.02124</v>
       </c>
       <c r="F29" t="n">
-        <v>1.9603</v>
+        <v>3.19895</v>
       </c>
       <c r="G29" t="n">
         <v>0.15</v>
@@ -1211,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02353</v>
+        <v>0.04635</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01177</v>
+        <v>0.02317</v>
       </c>
       <c r="F30" t="n">
-        <v>1.70176</v>
+        <v>2.89201</v>
       </c>
       <c r="G30" t="n">
         <v>0.15</v>
@@ -1237,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03169</v>
+        <v>0.06027</v>
       </c>
       <c r="E31" t="n">
-        <v>0.01584</v>
+        <v>0.03014</v>
       </c>
       <c r="F31" t="n">
-        <v>1.74805</v>
+        <v>3.65011</v>
       </c>
       <c r="G31" t="n">
         <v>0.15</v>
@@ -1263,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D32" t="n">
-        <v>0.03335</v>
+        <v>0.04532</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01668</v>
+        <v>0.02266</v>
       </c>
       <c r="F32" t="n">
-        <v>1.74843</v>
+        <v>2.71452</v>
       </c>
       <c r="G32" t="n">
         <v>0.15</v>
@@ -1289,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02399</v>
+        <v>0.03252</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01199</v>
+        <v>0.01626</v>
       </c>
       <c r="F33" t="n">
-        <v>1.37415</v>
+        <v>1.66867</v>
       </c>
       <c r="G33" t="n">
         <v>0.15</v>
@@ -1315,16 +1315,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04475</v>
+        <v>0.04041</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02238</v>
+        <v>0.0202</v>
       </c>
       <c r="F34" t="n">
-        <v>2.30993</v>
+        <v>2.61069</v>
       </c>
       <c r="G34" t="n">
         <v>0.15</v>
@@ -1341,16 +1341,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02676</v>
+        <v>0.03296</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01338</v>
+        <v>0.01648</v>
       </c>
       <c r="F35" t="n">
-        <v>2.19111</v>
+        <v>2.13935</v>
       </c>
       <c r="G35" t="n">
         <v>0.15</v>
@@ -1367,16 +1367,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03203</v>
+        <v>0.02953</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01602</v>
+        <v>0.01476</v>
       </c>
       <c r="F36" t="n">
-        <v>1.62127</v>
+        <v>2.23609</v>
       </c>
       <c r="G36" t="n">
         <v>0.15</v>
@@ -1393,16 +1393,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02732</v>
+        <v>0.02965</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01366</v>
+        <v>0.01483</v>
       </c>
       <c r="F37" t="n">
-        <v>2.22406</v>
+        <v>2.20974</v>
       </c>
       <c r="G37" t="n">
         <v>0.15</v>
@@ -1419,16 +1419,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02725</v>
+        <v>0.05238</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01362</v>
+        <v>0.02619</v>
       </c>
       <c r="F38" t="n">
-        <v>1.63464</v>
+        <v>2.82834</v>
       </c>
       <c r="G38" t="n">
         <v>0.15</v>
@@ -1445,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D39" t="n">
-        <v>0.04387</v>
+        <v>0.05943</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02194</v>
+        <v>0.02972</v>
       </c>
       <c r="F39" t="n">
-        <v>3.39238</v>
+        <v>3.4632</v>
       </c>
       <c r="G39" t="n">
         <v>0.15</v>
@@ -1471,16 +1471,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04328</v>
+        <v>0.05113</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02164</v>
+        <v>0.02556</v>
       </c>
       <c r="F40" t="n">
-        <v>3.14351</v>
+        <v>2.76224</v>
       </c>
       <c r="G40" t="n">
         <v>0.15</v>
@@ -1497,16 +1497,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D41" t="n">
-        <v>0.04666</v>
+        <v>0.04871</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02333</v>
+        <v>0.02435</v>
       </c>
       <c r="F41" t="n">
-        <v>2.61591</v>
+        <v>3.3408</v>
       </c>
       <c r="G41" t="n">
         <v>0.15</v>
@@ -1523,16 +1523,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03137</v>
+        <v>0.02217</v>
       </c>
       <c r="E42" t="n">
-        <v>0.00784</v>
+        <v>0.00554</v>
       </c>
       <c r="F42" t="n">
-        <v>1.39579</v>
+        <v>1.26494</v>
       </c>
       <c r="G42" t="n">
         <v>0.15</v>
@@ -1549,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03813</v>
+        <v>0.04766</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00953</v>
+        <v>0.01192</v>
       </c>
       <c r="F43" t="n">
-        <v>2.01687</v>
+        <v>1.51878</v>
       </c>
       <c r="G43" t="n">
         <v>0.15</v>
@@ -1575,16 +1575,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D44" t="n">
-        <v>0.05439</v>
+        <v>0.05544</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0136</v>
+        <v>0.01386</v>
       </c>
       <c r="F44" t="n">
-        <v>2.55183</v>
+        <v>1.90518</v>
       </c>
       <c r="G44" t="n">
         <v>0.15</v>
@@ -1601,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D45" t="n">
-        <v>0.05828</v>
+        <v>0.06686</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01457</v>
+        <v>0.01672</v>
       </c>
       <c r="F45" t="n">
-        <v>2.91078</v>
+        <v>2.12916</v>
       </c>
       <c r="G45" t="n">
         <v>0.15</v>
@@ -1627,16 +1627,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05387</v>
+        <v>0.07343</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01347</v>
+        <v>0.01836</v>
       </c>
       <c r="F46" t="n">
-        <v>2.80891</v>
+        <v>2.52909</v>
       </c>
       <c r="G46" t="n">
         <v>0.15</v>
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06984</v>
+        <v>0.07113</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01746</v>
+        <v>0.01778</v>
       </c>
       <c r="F47" t="n">
-        <v>3.82359</v>
+        <v>2.27609</v>
       </c>
       <c r="G47" t="n">
         <v>0.15</v>
@@ -1679,16 +1679,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06443</v>
+        <v>0.07519000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01611</v>
+        <v>0.0188</v>
       </c>
       <c r="F48" t="n">
-        <v>2.72985</v>
+        <v>2.23556</v>
       </c>
       <c r="G48" t="n">
         <v>0.15</v>
@@ -1705,16 +1705,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>0.04559</v>
+        <v>0.05548</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0114</v>
+        <v>0.01387</v>
       </c>
       <c r="F49" t="n">
-        <v>1.72281</v>
+        <v>3.59032</v>
       </c>
       <c r="G49" t="n">
         <v>0.15</v>
@@ -1731,16 +1731,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03901</v>
+        <v>0.05029</v>
       </c>
       <c r="E50" t="n">
-        <v>0.00975</v>
+        <v>0.01257</v>
       </c>
       <c r="F50" t="n">
-        <v>1.90693</v>
+        <v>2.05065</v>
       </c>
       <c r="G50" t="n">
         <v>0.15</v>
@@ -1757,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0345</v>
+        <v>0.0622</v>
       </c>
       <c r="E51" t="n">
-        <v>0.008619999999999999</v>
+        <v>0.01555</v>
       </c>
       <c r="F51" t="n">
-        <v>1.38117</v>
+        <v>2.3224</v>
       </c>
       <c r="G51" t="n">
         <v>0.15</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D52" t="n">
-        <v>0.04234</v>
+        <v>0.07788</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01058</v>
+        <v>0.01947</v>
       </c>
       <c r="F52" t="n">
-        <v>2.08706</v>
+        <v>3.30052</v>
       </c>
       <c r="G52" t="n">
         <v>0.15</v>
@@ -1809,16 +1809,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D53" t="n">
-        <v>0.04612</v>
+        <v>0.10729</v>
       </c>
       <c r="E53" t="n">
-        <v>0.01153</v>
+        <v>0.02682</v>
       </c>
       <c r="F53" t="n">
-        <v>2.63957</v>
+        <v>3.59077</v>
       </c>
       <c r="G53" t="n">
         <v>0.15</v>
@@ -1835,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03576</v>
+        <v>0.07854999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00894</v>
+        <v>0.01964</v>
       </c>
       <c r="F54" t="n">
-        <v>1.81713</v>
+        <v>3.2077</v>
       </c>
       <c r="G54" t="n">
         <v>0.15</v>
@@ -1861,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04813</v>
+        <v>0.06126</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01203</v>
+        <v>0.01531</v>
       </c>
       <c r="F55" t="n">
-        <v>2.0147</v>
+        <v>2.80015</v>
       </c>
       <c r="G55" t="n">
         <v>0.15</v>
@@ -1887,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D56" t="n">
-        <v>0.04237</v>
+        <v>0.06441</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01059</v>
+        <v>0.0161</v>
       </c>
       <c r="F56" t="n">
-        <v>1.63086</v>
+        <v>1.95171</v>
       </c>
       <c r="G56" t="n">
         <v>0.15</v>
@@ -1913,16 +1913,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07846</v>
+        <v>0.07766000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0.01961</v>
+        <v>0.01941</v>
       </c>
       <c r="F57" t="n">
-        <v>2.40168</v>
+        <v>3.97551</v>
       </c>
       <c r="G57" t="n">
         <v>0.15</v>
@@ -1939,16 +1939,16 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>0.04831</v>
+        <v>0.07092</v>
       </c>
       <c r="E58" t="n">
-        <v>0.01208</v>
+        <v>0.01773</v>
       </c>
       <c r="F58" t="n">
-        <v>1.65685</v>
+        <v>3.04525</v>
       </c>
       <c r="G58" t="n">
         <v>0.15</v>
@@ -1965,16 +1965,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06547</v>
+        <v>0.03896</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01637</v>
+        <v>0.00974</v>
       </c>
       <c r="F59" t="n">
-        <v>2.40402</v>
+        <v>1.77755</v>
       </c>
       <c r="G59" t="n">
         <v>0.15</v>
@@ -1991,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08019</v>
+        <v>0.08298999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.02005</v>
+        <v>0.02075</v>
       </c>
       <c r="F60" t="n">
-        <v>3.58562</v>
+        <v>2.43478</v>
       </c>
       <c r="G60" t="n">
         <v>0.15</v>
@@ -2017,16 +2017,16 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04977</v>
+        <v>0.04615</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01244</v>
+        <v>0.01154</v>
       </c>
       <c r="F61" t="n">
-        <v>3.16721</v>
+        <v>2.79824</v>
       </c>
       <c r="G61" t="n">
         <v>0.15</v>
@@ -2043,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0245</v>
+        <v>0.04576</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00613</v>
+        <v>0.01144</v>
       </c>
       <c r="F62" t="n">
-        <v>2.07222</v>
+        <v>2.59369</v>
       </c>
       <c r="G62" t="n">
         <v>0.85</v>
@@ -2069,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D63" t="n">
-        <v>0.02088</v>
+        <v>0.0193</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00522</v>
+        <v>0.00482</v>
       </c>
       <c r="F63" t="n">
-        <v>1.6381</v>
+        <v>1.37484</v>
       </c>
       <c r="G63" t="n">
         <v>0.85</v>
@@ -2095,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D64" t="n">
-        <v>0.01283</v>
+        <v>0.03818</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00321</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>1.12417</v>
+        <v>1.7437</v>
       </c>
       <c r="G64" t="n">
         <v>0.85</v>
@@ -2121,16 +2121,16 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0386</v>
+        <v>0.0435</v>
       </c>
       <c r="E65" t="n">
-        <v>0.009650000000000001</v>
+        <v>0.01087</v>
       </c>
       <c r="F65" t="n">
-        <v>2.18724</v>
+        <v>2.30727</v>
       </c>
       <c r="G65" t="n">
         <v>0.85</v>
@@ -2147,16 +2147,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D66" t="n">
-        <v>0.02031</v>
+        <v>0.04533</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00508</v>
+        <v>0.01133</v>
       </c>
       <c r="F66" t="n">
-        <v>1.70199</v>
+        <v>2.57785</v>
       </c>
       <c r="G66" t="n">
         <v>0.85</v>
@@ -2173,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03185</v>
+        <v>0.04184</v>
       </c>
       <c r="E67" t="n">
-        <v>0.00796</v>
+        <v>0.01046</v>
       </c>
       <c r="F67" t="n">
-        <v>2.42625</v>
+        <v>2.91508</v>
       </c>
       <c r="G67" t="n">
         <v>0.85</v>
@@ -2199,16 +2199,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03054</v>
+        <v>0.03584</v>
       </c>
       <c r="E68" t="n">
-        <v>0.00764</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="F68" t="n">
-        <v>1.80158</v>
+        <v>2.68099</v>
       </c>
       <c r="G68" t="n">
         <v>0.85</v>
@@ -2225,16 +2225,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04404</v>
+        <v>0.02944</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01101</v>
+        <v>0.00736</v>
       </c>
       <c r="F69" t="n">
-        <v>2.60659</v>
+        <v>1.8994</v>
       </c>
       <c r="G69" t="n">
         <v>0.85</v>
@@ -2251,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01435</v>
+        <v>0.03031</v>
       </c>
       <c r="E70" t="n">
-        <v>0.00359</v>
+        <v>0.00758</v>
       </c>
       <c r="F70" t="n">
-        <v>0.97481</v>
+        <v>1.90703</v>
       </c>
       <c r="G70" t="n">
         <v>0.85</v>
@@ -2277,16 +2277,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D71" t="n">
-        <v>0.03276</v>
+        <v>0.01917</v>
       </c>
       <c r="E71" t="n">
-        <v>0.008189999999999999</v>
+        <v>0.00479</v>
       </c>
       <c r="F71" t="n">
-        <v>2.12386</v>
+        <v>1.27445</v>
       </c>
       <c r="G71" t="n">
         <v>0.85</v>
@@ -2303,16 +2303,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D72" t="n">
-        <v>0.05079</v>
+        <v>0.02135</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0127</v>
+        <v>0.00534</v>
       </c>
       <c r="F72" t="n">
-        <v>3.4483</v>
+        <v>1.29294</v>
       </c>
       <c r="G72" t="n">
         <v>0.85</v>
@@ -2329,16 +2329,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03993</v>
+        <v>0.01381</v>
       </c>
       <c r="E73" t="n">
-        <v>0.009979999999999999</v>
+        <v>0.00345</v>
       </c>
       <c r="F73" t="n">
-        <v>2.0171</v>
+        <v>1.42697</v>
       </c>
       <c r="G73" t="n">
         <v>0.85</v>
@@ -2355,16 +2355,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02001</v>
+        <v>0.10764</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005</v>
+        <v>0.02691</v>
       </c>
       <c r="F74" t="n">
-        <v>1.83115</v>
+        <v>2.79217</v>
       </c>
       <c r="G74" t="n">
         <v>0.85</v>
@@ -2381,16 +2381,16 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02154</v>
+        <v>0.03045</v>
       </c>
       <c r="E75" t="n">
-        <v>0.00538</v>
+        <v>0.00761</v>
       </c>
       <c r="F75" t="n">
-        <v>1.34554</v>
+        <v>2.63994</v>
       </c>
       <c r="G75" t="n">
         <v>0.85</v>
@@ -2407,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03212</v>
+        <v>0.04748</v>
       </c>
       <c r="E76" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.01187</v>
       </c>
       <c r="F76" t="n">
-        <v>1.58322</v>
+        <v>1.95873</v>
       </c>
       <c r="G76" t="n">
         <v>0.85</v>
@@ -2433,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03869</v>
+        <v>0.0225</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00967</v>
+        <v>0.00563</v>
       </c>
       <c r="F77" t="n">
-        <v>1.89292</v>
+        <v>1.36285</v>
       </c>
       <c r="G77" t="n">
         <v>0.85</v>
@@ -2459,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0331</v>
+        <v>0.02238</v>
       </c>
       <c r="E78" t="n">
-        <v>0.008279999999999999</v>
+        <v>0.00559</v>
       </c>
       <c r="F78" t="n">
-        <v>1.74303</v>
+        <v>1.71129</v>
       </c>
       <c r="G78" t="n">
         <v>0.85</v>
@@ -2485,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0365</v>
+        <v>0.01454</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00912</v>
+        <v>0.00363</v>
       </c>
       <c r="F79" t="n">
-        <v>1.95833</v>
+        <v>1.26824</v>
       </c>
       <c r="G79" t="n">
         <v>0.85</v>
@@ -2511,16 +2511,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01948</v>
+        <v>0.02552</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00487</v>
+        <v>0.00638</v>
       </c>
       <c r="F80" t="n">
-        <v>1.50867</v>
+        <v>1.67684</v>
       </c>
       <c r="G80" t="n">
         <v>0.85</v>
@@ -2537,16 +2537,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D81" t="n">
-        <v>0.01385</v>
+        <v>0.04377</v>
       </c>
       <c r="E81" t="n">
-        <v>0.00346</v>
+        <v>0.01094</v>
       </c>
       <c r="F81" t="n">
-        <v>1.10337</v>
+        <v>2.82254</v>
       </c>
       <c r="G81" t="n">
         <v>0.85</v>
@@ -2563,16 +2563,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D82" t="n">
-        <v>0.05993</v>
+        <v>0.0321</v>
       </c>
       <c r="E82" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.00535</v>
       </c>
       <c r="F82" t="n">
-        <v>2.45603</v>
+        <v>1.69902</v>
       </c>
       <c r="G82" t="n">
         <v>0.85</v>
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D83" t="n">
-        <v>0.04894</v>
+        <v>0.04263</v>
       </c>
       <c r="E83" t="n">
-        <v>0.008160000000000001</v>
+        <v>0.00711</v>
       </c>
       <c r="F83" t="n">
-        <v>2.24357</v>
+        <v>2.30611</v>
       </c>
       <c r="G83" t="n">
         <v>0.85</v>
@@ -2615,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03136</v>
+        <v>0.04185</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00523</v>
+        <v>0.00698</v>
       </c>
       <c r="F84" t="n">
-        <v>1.69251</v>
+        <v>1.73887</v>
       </c>
       <c r="G84" t="n">
         <v>0.85</v>
@@ -2641,16 +2641,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D85" t="n">
-        <v>0.07109</v>
+        <v>0.02663</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01185</v>
+        <v>0.00444</v>
       </c>
       <c r="F85" t="n">
-        <v>2.18967</v>
+        <v>1.95048</v>
       </c>
       <c r="G85" t="n">
         <v>0.85</v>
@@ -2667,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02217</v>
+        <v>0.03041</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0037</v>
+        <v>0.00507</v>
       </c>
       <c r="F86" t="n">
-        <v>1.63206</v>
+        <v>1.34684</v>
       </c>
       <c r="G86" t="n">
         <v>0.85</v>
@@ -2696,13 +2696,13 @@
         <v>24</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03454</v>
+        <v>0.01999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00576</v>
+        <v>0.00333</v>
       </c>
       <c r="F87" t="n">
-        <v>1.89152</v>
+        <v>0.96641</v>
       </c>
       <c r="G87" t="n">
         <v>0.85</v>
@@ -2719,16 +2719,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03076</v>
+        <v>0.02346</v>
       </c>
       <c r="E88" t="n">
-        <v>0.00513</v>
+        <v>0.00391</v>
       </c>
       <c r="F88" t="n">
-        <v>2.01117</v>
+        <v>0.89944</v>
       </c>
       <c r="G88" t="n">
         <v>0.85</v>
@@ -2745,16 +2745,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02658</v>
+        <v>0.05699</v>
       </c>
       <c r="E89" t="n">
-        <v>0.00443</v>
+        <v>0.0095</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8815</v>
+        <v>1.84402</v>
       </c>
       <c r="G89" t="n">
         <v>0.85</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03501</v>
+        <v>0.04717</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00583</v>
+        <v>0.007860000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>1.26232</v>
+        <v>1.90291</v>
       </c>
       <c r="G90" t="n">
         <v>0.85</v>
@@ -2797,16 +2797,16 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D91" t="n">
-        <v>0.01304</v>
+        <v>0.05475</v>
       </c>
       <c r="E91" t="n">
-        <v>0.00217</v>
+        <v>0.00912</v>
       </c>
       <c r="F91" t="n">
-        <v>0.96168</v>
+        <v>1.95162</v>
       </c>
       <c r="G91" t="n">
         <v>0.85</v>
@@ -2823,16 +2823,16 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="D92" t="n">
-        <v>0.06811</v>
+        <v>0.0279</v>
       </c>
       <c r="E92" t="n">
-        <v>0.01135</v>
+        <v>0.00465</v>
       </c>
       <c r="F92" t="n">
-        <v>2.40681</v>
+        <v>2.14425</v>
       </c>
       <c r="G92" t="n">
         <v>0.85</v>
@@ -2849,16 +2849,16 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D93" t="n">
-        <v>0.06479</v>
+        <v>0.03271</v>
       </c>
       <c r="E93" t="n">
-        <v>0.0108</v>
+        <v>0.00545</v>
       </c>
       <c r="F93" t="n">
-        <v>2.49571</v>
+        <v>1.79817</v>
       </c>
       <c r="G93" t="n">
         <v>0.85</v>
@@ -2875,16 +2875,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D94" t="n">
-        <v>0.06340999999999999</v>
+        <v>0.03769</v>
       </c>
       <c r="E94" t="n">
-        <v>0.01057</v>
+        <v>0.00628</v>
       </c>
       <c r="F94" t="n">
-        <v>2.32278</v>
+        <v>1.59086</v>
       </c>
       <c r="G94" t="n">
         <v>0.85</v>
@@ -2901,16 +2901,16 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D95" t="n">
-        <v>0.01579</v>
+        <v>0.03459</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00263</v>
+        <v>0.00576</v>
       </c>
       <c r="F95" t="n">
-        <v>1.0092</v>
+        <v>2.0181</v>
       </c>
       <c r="G95" t="n">
         <v>0.85</v>
@@ -2927,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D96" t="n">
-        <v>0.01967</v>
+        <v>0.02494</v>
       </c>
       <c r="E96" t="n">
-        <v>0.00328</v>
+        <v>0.00416</v>
       </c>
       <c r="F96" t="n">
-        <v>1.127</v>
+        <v>1.19486</v>
       </c>
       <c r="G96" t="n">
         <v>0.85</v>
@@ -2953,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D97" t="n">
-        <v>0.06736</v>
+        <v>0.06002</v>
       </c>
       <c r="E97" t="n">
-        <v>0.01123</v>
+        <v>0.01</v>
       </c>
       <c r="F97" t="n">
-        <v>2.24755</v>
+        <v>2.65749</v>
       </c>
       <c r="G97" t="n">
         <v>0.85</v>
@@ -2979,16 +2979,16 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04389</v>
+        <v>0.06288000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00731</v>
+        <v>0.01048</v>
       </c>
       <c r="F98" t="n">
-        <v>2.14705</v>
+        <v>2.58298</v>
       </c>
       <c r="G98" t="n">
         <v>0.85</v>
@@ -3005,16 +3005,16 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02345</v>
+        <v>0.04412</v>
       </c>
       <c r="E99" t="n">
-        <v>0.00391</v>
+        <v>0.00735</v>
       </c>
       <c r="F99" t="n">
-        <v>1.25873</v>
+        <v>1.46866</v>
       </c>
       <c r="G99" t="n">
         <v>0.85</v>
@@ -3031,16 +3031,16 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02934</v>
+        <v>0.02117</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00489</v>
+        <v>0.00353</v>
       </c>
       <c r="F100" t="n">
-        <v>1.52557</v>
+        <v>1.1407</v>
       </c>
       <c r="G100" t="n">
         <v>0.85</v>
@@ -3057,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01795</v>
+        <v>0.05902</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00299</v>
+        <v>0.00984</v>
       </c>
       <c r="F101" t="n">
-        <v>1.12138</v>
+        <v>2.31883</v>
       </c>
       <c r="G101" t="n">
         <v>0.85</v>
@@ -3083,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D102" t="n">
-        <v>0.05064</v>
+        <v>0.07185</v>
       </c>
       <c r="E102" t="n">
-        <v>0.00844</v>
+        <v>0.01197</v>
       </c>
       <c r="F102" t="n">
-        <v>1.64228</v>
+        <v>3.1933</v>
       </c>
       <c r="G102" t="n">
         <v>0.15</v>
@@ -3109,16 +3109,16 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D103" t="n">
-        <v>0.08361</v>
+        <v>0.06639</v>
       </c>
       <c r="E103" t="n">
-        <v>0.01394</v>
+        <v>0.01107</v>
       </c>
       <c r="F103" t="n">
-        <v>2.70106</v>
+        <v>2.16674</v>
       </c>
       <c r="G103" t="n">
         <v>0.15</v>
@@ -3135,16 +3135,16 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D104" t="n">
-        <v>0.15982</v>
+        <v>0.07718</v>
       </c>
       <c r="E104" t="n">
-        <v>0.02664</v>
+        <v>0.01286</v>
       </c>
       <c r="F104" t="n">
-        <v>4.53604</v>
+        <v>2.5352</v>
       </c>
       <c r="G104" t="n">
         <v>0.15</v>
@@ -3161,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D105" t="n">
-        <v>0.13465</v>
+        <v>0.07317</v>
       </c>
       <c r="E105" t="n">
-        <v>0.02244</v>
+        <v>0.0122</v>
       </c>
       <c r="F105" t="n">
-        <v>2.86228</v>
+        <v>3.61948</v>
       </c>
       <c r="G105" t="n">
         <v>0.15</v>
@@ -3187,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D106" t="n">
-        <v>0.08729000000000001</v>
+        <v>0.05227</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01455</v>
+        <v>0.008710000000000001</v>
       </c>
       <c r="F106" t="n">
-        <v>2.61563</v>
+        <v>1.58085</v>
       </c>
       <c r="G106" t="n">
         <v>0.15</v>
@@ -3213,16 +3213,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D107" t="n">
-        <v>0.14766</v>
+        <v>0.14906</v>
       </c>
       <c r="E107" t="n">
-        <v>0.02461</v>
+        <v>0.02484</v>
       </c>
       <c r="F107" t="n">
-        <v>2.97465</v>
+        <v>4.03629</v>
       </c>
       <c r="G107" t="n">
         <v>0.15</v>
@@ -3239,16 +3239,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06662999999999999</v>
+        <v>0.17804</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01111</v>
+        <v>0.02967</v>
       </c>
       <c r="F108" t="n">
-        <v>3.46775</v>
+        <v>5.42771</v>
       </c>
       <c r="G108" t="n">
         <v>0.15</v>
@@ -3265,16 +3265,16 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D109" t="n">
-        <v>0.06209</v>
+        <v>0.11568</v>
       </c>
       <c r="E109" t="n">
-        <v>0.01035</v>
+        <v>0.01928</v>
       </c>
       <c r="F109" t="n">
-        <v>2.51481</v>
+        <v>4.34989</v>
       </c>
       <c r="G109" t="n">
         <v>0.15</v>
@@ -3291,16 +3291,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D110" t="n">
-        <v>0.14574</v>
+        <v>0.06566</v>
       </c>
       <c r="E110" t="n">
-        <v>0.02429</v>
+        <v>0.01094</v>
       </c>
       <c r="F110" t="n">
-        <v>2.92635</v>
+        <v>2.45003</v>
       </c>
       <c r="G110" t="n">
         <v>0.15</v>
@@ -3317,16 +3317,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D111" t="n">
-        <v>0.08019</v>
+        <v>0.09913</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01337</v>
+        <v>0.01652</v>
       </c>
       <c r="F111" t="n">
-        <v>1.9102</v>
+        <v>4.94445</v>
       </c>
       <c r="G111" t="n">
         <v>0.15</v>
@@ -3343,16 +3343,16 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D112" t="n">
-        <v>0.04843</v>
+        <v>0.14628</v>
       </c>
       <c r="E112" t="n">
-        <v>0.008070000000000001</v>
+        <v>0.02438</v>
       </c>
       <c r="F112" t="n">
-        <v>1.56595</v>
+        <v>3.19628</v>
       </c>
       <c r="G112" t="n">
         <v>0.15</v>
@@ -3369,16 +3369,16 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D113" t="n">
-        <v>0.05301</v>
+        <v>0.1277</v>
       </c>
       <c r="E113" t="n">
-        <v>0.008840000000000001</v>
+        <v>0.02128</v>
       </c>
       <c r="F113" t="n">
-        <v>1.86623</v>
+        <v>3.55884</v>
       </c>
       <c r="G113" t="n">
         <v>0.15</v>
@@ -3395,16 +3395,16 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08217000000000001</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01369</v>
+        <v>0.01047</v>
       </c>
       <c r="F114" t="n">
-        <v>3.21878</v>
+        <v>2.18481</v>
       </c>
       <c r="G114" t="n">
         <v>0.15</v>
@@ -3421,16 +3421,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D115" t="n">
-        <v>0.06481000000000001</v>
+        <v>0.05063</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0108</v>
+        <v>0.00844</v>
       </c>
       <c r="F115" t="n">
-        <v>2.12202</v>
+        <v>1.67924</v>
       </c>
       <c r="G115" t="n">
         <v>0.15</v>
@@ -3447,16 +3447,16 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D116" t="n">
-        <v>0.09342</v>
+        <v>0.06522</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01557</v>
+        <v>0.01087</v>
       </c>
       <c r="F116" t="n">
-        <v>2.74996</v>
+        <v>1.78389</v>
       </c>
       <c r="G116" t="n">
         <v>0.15</v>
@@ -3473,16 +3473,16 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
-        <v>0.07154000000000001</v>
+        <v>0.04674</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01192</v>
+        <v>0.00779</v>
       </c>
       <c r="F117" t="n">
-        <v>2.03599</v>
+        <v>2.35107</v>
       </c>
       <c r="G117" t="n">
         <v>0.15</v>
@@ -3499,16 +3499,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D118" t="n">
-        <v>0.10457</v>
+        <v>0.06365999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>0.01743</v>
+        <v>0.01061</v>
       </c>
       <c r="F118" t="n">
-        <v>2.50929</v>
+        <v>1.74727</v>
       </c>
       <c r="G118" t="n">
         <v>0.15</v>
@@ -3525,16 +3525,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D119" t="n">
-        <v>0.06507</v>
+        <v>0.06439</v>
       </c>
       <c r="E119" t="n">
-        <v>0.01084</v>
+        <v>0.01073</v>
       </c>
       <c r="F119" t="n">
-        <v>1.65482</v>
+        <v>2.50877</v>
       </c>
       <c r="G119" t="n">
         <v>0.15</v>
@@ -3551,16 +3551,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D120" t="n">
-        <v>0.11078</v>
+        <v>0.0522</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01846</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>3.1642</v>
+        <v>2.46553</v>
       </c>
       <c r="G120" t="n">
         <v>0.15</v>
@@ -3577,16 +3577,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D121" t="n">
-        <v>0.04065</v>
+        <v>0.04391</v>
       </c>
       <c r="E121" t="n">
-        <v>0.00678</v>
+        <v>0.00732</v>
       </c>
       <c r="F121" t="n">
-        <v>1.5766</v>
+        <v>1.32355</v>
       </c>
       <c r="G121" t="n">
         <v>0.15</v>
@@ -3603,16 +3603,16 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122" t="n">
-        <v>0.11687</v>
+        <v>0.08565</v>
       </c>
       <c r="E122" t="n">
-        <v>0.01461</v>
+        <v>0.01071</v>
       </c>
       <c r="F122" t="n">
-        <v>3.76053</v>
+        <v>2.78906</v>
       </c>
       <c r="G122" t="n">
         <v>0.15</v>
@@ -3629,16 +3629,16 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06733</v>
+        <v>0.16514</v>
       </c>
       <c r="E123" t="n">
-        <v>0.00842</v>
+        <v>0.02064</v>
       </c>
       <c r="F123" t="n">
-        <v>2.05854</v>
+        <v>2.3015</v>
       </c>
       <c r="G123" t="n">
         <v>0.15</v>
@@ -3655,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D124" t="n">
-        <v>0.07733</v>
+        <v>0.06755</v>
       </c>
       <c r="E124" t="n">
-        <v>0.00967</v>
+        <v>0.00844</v>
       </c>
       <c r="F124" t="n">
-        <v>1.65374</v>
+        <v>1.62672</v>
       </c>
       <c r="G124" t="n">
         <v>0.15</v>
@@ -3681,16 +3681,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09755</v>
+        <v>0.09306</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01219</v>
+        <v>0.01163</v>
       </c>
       <c r="F125" t="n">
-        <v>2.6289</v>
+        <v>2.42094</v>
       </c>
       <c r="G125" t="n">
         <v>0.15</v>
@@ -3707,16 +3707,16 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D126" t="n">
-        <v>0.09012000000000001</v>
+        <v>0.1256</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01126</v>
+        <v>0.0157</v>
       </c>
       <c r="F126" t="n">
-        <v>1.90893</v>
+        <v>2.44318</v>
       </c>
       <c r="G126" t="n">
         <v>0.15</v>
@@ -3733,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D127" t="n">
-        <v>0.09918</v>
+        <v>0.10179</v>
       </c>
       <c r="E127" t="n">
-        <v>0.0124</v>
+        <v>0.01272</v>
       </c>
       <c r="F127" t="n">
-        <v>3.60943</v>
+        <v>2.54119</v>
       </c>
       <c r="G127" t="n">
         <v>0.15</v>
@@ -3759,16 +3759,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D128" t="n">
-        <v>0.16808</v>
+        <v>0.1472</v>
       </c>
       <c r="E128" t="n">
-        <v>0.02101</v>
+        <v>0.0184</v>
       </c>
       <c r="F128" t="n">
-        <v>2.70931</v>
+        <v>2.08045</v>
       </c>
       <c r="G128" t="n">
         <v>0.15</v>
@@ -3785,16 +3785,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D129" t="n">
-        <v>0.10348</v>
+        <v>0.07001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.01294</v>
+        <v>0.008750000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>2.56318</v>
+        <v>2.13681</v>
       </c>
       <c r="G129" t="n">
         <v>0.15</v>
@@ -3811,16 +3811,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D130" t="n">
-        <v>0.05416</v>
+        <v>0.07158</v>
       </c>
       <c r="E130" t="n">
-        <v>0.00677</v>
+        <v>0.00895</v>
       </c>
       <c r="F130" t="n">
-        <v>1.76678</v>
+        <v>2.58693</v>
       </c>
       <c r="G130" t="n">
         <v>0.15</v>
@@ -3837,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.08241</v>
+        <v>0.16222</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0103</v>
+        <v>0.02028</v>
       </c>
       <c r="F131" t="n">
-        <v>1.33735</v>
+        <v>3.73575</v>
       </c>
       <c r="G131" t="n">
         <v>0.15</v>
@@ -3863,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11338</v>
+        <v>0.06299</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01417</v>
+        <v>0.00787</v>
       </c>
       <c r="F132" t="n">
-        <v>3.10051</v>
+        <v>2.52168</v>
       </c>
       <c r="G132" t="n">
         <v>0.15</v>
@@ -3889,16 +3889,16 @@
         <v>1</v>
       </c>
       <c r="C133" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D133" t="n">
-        <v>0.17135</v>
+        <v>0.10756</v>
       </c>
       <c r="E133" t="n">
-        <v>0.02142</v>
+        <v>0.01345</v>
       </c>
       <c r="F133" t="n">
-        <v>4.80461</v>
+        <v>2.43129</v>
       </c>
       <c r="G133" t="n">
         <v>0.15</v>
@@ -3915,16 +3915,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D134" t="n">
-        <v>0.08043</v>
+        <v>0.12152</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01005</v>
+        <v>0.01519</v>
       </c>
       <c r="F134" t="n">
-        <v>2.40481</v>
+        <v>3.31943</v>
       </c>
       <c r="G134" t="n">
         <v>0.15</v>
@@ -3941,16 +3941,16 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" t="n">
-        <v>0.05827</v>
+        <v>0.12352</v>
       </c>
       <c r="E135" t="n">
-        <v>0.00728</v>
+        <v>0.01544</v>
       </c>
       <c r="F135" t="n">
-        <v>1.68214</v>
+        <v>2.8115</v>
       </c>
       <c r="G135" t="n">
         <v>0.15</v>
@@ -3967,16 +3967,16 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D136" t="n">
-        <v>0.12001</v>
+        <v>0.04492</v>
       </c>
       <c r="E136" t="n">
-        <v>0.015</v>
+        <v>0.00561</v>
       </c>
       <c r="F136" t="n">
-        <v>3.67758</v>
+        <v>1.8399</v>
       </c>
       <c r="G136" t="n">
         <v>0.15</v>
@@ -3993,16 +3993,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D137" t="n">
-        <v>0.07858999999999999</v>
+        <v>0.07803</v>
       </c>
       <c r="E137" t="n">
-        <v>0.009820000000000001</v>
+        <v>0.00975</v>
       </c>
       <c r="F137" t="n">
-        <v>3.03824</v>
+        <v>3.13477</v>
       </c>
       <c r="G137" t="n">
         <v>0.15</v>
@@ -4019,16 +4019,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06382</v>
+        <v>0.12364</v>
       </c>
       <c r="E138" t="n">
-        <v>0.007979999999999999</v>
+        <v>0.01546</v>
       </c>
       <c r="F138" t="n">
-        <v>1.80201</v>
+        <v>2.41294</v>
       </c>
       <c r="G138" t="n">
         <v>0.15</v>
@@ -4045,16 +4045,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D139" t="n">
-        <v>0.08796</v>
+        <v>0.13879</v>
       </c>
       <c r="E139" t="n">
-        <v>0.011</v>
+        <v>0.01735</v>
       </c>
       <c r="F139" t="n">
-        <v>3.18445</v>
+        <v>4.57609</v>
       </c>
       <c r="G139" t="n">
         <v>0.15</v>
@@ -4071,16 +4071,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D140" t="n">
-        <v>0.1251</v>
+        <v>0.09501999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>0.01564</v>
+        <v>0.01188</v>
       </c>
       <c r="F140" t="n">
-        <v>3.4753</v>
+        <v>2.47189</v>
       </c>
       <c r="G140" t="n">
         <v>0.15</v>
@@ -4097,16 +4097,16 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D141" t="n">
-        <v>0.09293</v>
+        <v>0.1034</v>
       </c>
       <c r="E141" t="n">
-        <v>0.01162</v>
+        <v>0.01293</v>
       </c>
       <c r="F141" t="n">
-        <v>1.40076</v>
+        <v>3.36098</v>
       </c>
       <c r="G141" t="n">
         <v>0.15</v>
@@ -4123,16 +4123,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D142" t="n">
-        <v>0.04138</v>
+        <v>0.08438</v>
       </c>
       <c r="E142" t="n">
-        <v>0.00517</v>
+        <v>0.01055</v>
       </c>
       <c r="F142" t="n">
-        <v>1.41697</v>
+        <v>2.17413</v>
       </c>
       <c r="G142" t="n">
         <v>0.85</v>
@@ -4149,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D143" t="n">
-        <v>0.04998</v>
+        <v>0.07976999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>0.00625</v>
+        <v>0.00997</v>
       </c>
       <c r="F143" t="n">
-        <v>1.69536</v>
+        <v>2.3083</v>
       </c>
       <c r="G143" t="n">
         <v>0.85</v>
@@ -4175,16 +4175,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D144" t="n">
-        <v>0.04082</v>
+        <v>0.04662</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0051</v>
+        <v>0.00583</v>
       </c>
       <c r="F144" t="n">
-        <v>1.75918</v>
+        <v>1.69793</v>
       </c>
       <c r="G144" t="n">
         <v>0.85</v>
@@ -4201,16 +4201,16 @@
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D145" t="n">
-        <v>0.06013</v>
+        <v>0.07167</v>
       </c>
       <c r="E145" t="n">
-        <v>0.00752</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>2.1156</v>
+        <v>2.08608</v>
       </c>
       <c r="G145" t="n">
         <v>0.85</v>
@@ -4227,16 +4227,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D146" t="n">
-        <v>0.08749999999999999</v>
+        <v>0.06428</v>
       </c>
       <c r="E146" t="n">
-        <v>0.01094</v>
+        <v>0.008030000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>2.44676</v>
+        <v>1.7799</v>
       </c>
       <c r="G146" t="n">
         <v>0.85</v>
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D147" t="n">
-        <v>0.06713</v>
+        <v>0.03501</v>
       </c>
       <c r="E147" t="n">
-        <v>0.00839</v>
+        <v>0.00438</v>
       </c>
       <c r="F147" t="n">
-        <v>2.79294</v>
+        <v>2.31814</v>
       </c>
       <c r="G147" t="n">
         <v>0.85</v>
@@ -4279,16 +4279,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D148" t="n">
-        <v>0.06162</v>
+        <v>0.06626</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0077</v>
+        <v>0.008279999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>2.17312</v>
+        <v>2.70047</v>
       </c>
       <c r="G148" t="n">
         <v>0.85</v>
@@ -4305,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D149" t="n">
-        <v>0.05611</v>
+        <v>0.07872999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00701</v>
+        <v>0.00984</v>
       </c>
       <c r="F149" t="n">
-        <v>2.1681</v>
+        <v>2.45656</v>
       </c>
       <c r="G149" t="n">
         <v>0.85</v>
@@ -4331,16 +4331,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02953</v>
+        <v>0.10565</v>
       </c>
       <c r="E150" t="n">
-        <v>0.00369</v>
+        <v>0.01321</v>
       </c>
       <c r="F150" t="n">
-        <v>1.21887</v>
+        <v>3.57419</v>
       </c>
       <c r="G150" t="n">
         <v>0.85</v>
@@ -4357,16 +4357,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D151" t="n">
-        <v>0.04517</v>
+        <v>0.03428</v>
       </c>
       <c r="E151" t="n">
-        <v>0.00565</v>
+        <v>0.00429</v>
       </c>
       <c r="F151" t="n">
-        <v>2.34179</v>
+        <v>1.94937</v>
       </c>
       <c r="G151" t="n">
         <v>0.85</v>
@@ -4383,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D152" t="n">
-        <v>0.03828</v>
+        <v>0.05594</v>
       </c>
       <c r="E152" t="n">
-        <v>0.00478</v>
+        <v>0.00699</v>
       </c>
       <c r="F152" t="n">
-        <v>1.70816</v>
+        <v>2.49024</v>
       </c>
       <c r="G152" t="n">
         <v>0.85</v>
@@ -4409,16 +4409,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" t="n">
-        <v>0.02336</v>
+        <v>0.05111</v>
       </c>
       <c r="E153" t="n">
-        <v>0.00292</v>
+        <v>0.00639</v>
       </c>
       <c r="F153" t="n">
-        <v>1.24253</v>
+        <v>2.26902</v>
       </c>
       <c r="G153" t="n">
         <v>0.85</v>
@@ -4435,16 +4435,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D154" t="n">
-        <v>0.09529</v>
+        <v>0.05729</v>
       </c>
       <c r="E154" t="n">
-        <v>0.01191</v>
+        <v>0.00716</v>
       </c>
       <c r="F154" t="n">
-        <v>1.81578</v>
+        <v>2.02979</v>
       </c>
       <c r="G154" t="n">
         <v>0.85</v>
@@ -4461,16 +4461,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03835</v>
+        <v>0.03606</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00479</v>
+        <v>0.00451</v>
       </c>
       <c r="F155" t="n">
-        <v>1.33138</v>
+        <v>1.438</v>
       </c>
       <c r="G155" t="n">
         <v>0.85</v>
@@ -4487,16 +4487,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D156" t="n">
-        <v>0.04898</v>
+        <v>0.06116</v>
       </c>
       <c r="E156" t="n">
-        <v>0.00612</v>
+        <v>0.00764</v>
       </c>
       <c r="F156" t="n">
-        <v>1.62814</v>
+        <v>1.7448</v>
       </c>
       <c r="G156" t="n">
         <v>0.85</v>
@@ -4516,13 +4516,13 @@
         <v>18</v>
       </c>
       <c r="D157" t="n">
-        <v>0.01632</v>
+        <v>0.02239</v>
       </c>
       <c r="E157" t="n">
-        <v>0.00204</v>
+        <v>0.0028</v>
       </c>
       <c r="F157" t="n">
-        <v>0.80671</v>
+        <v>0.94947</v>
       </c>
       <c r="G157" t="n">
         <v>0.85</v>
@@ -4539,16 +4539,16 @@
         <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D158" t="n">
-        <v>0.02658</v>
+        <v>0.02649</v>
       </c>
       <c r="E158" t="n">
-        <v>0.00332</v>
+        <v>0.00331</v>
       </c>
       <c r="F158" t="n">
-        <v>0.77013</v>
+        <v>1.16952</v>
       </c>
       <c r="G158" t="n">
         <v>0.85</v>
@@ -4565,16 +4565,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D159" t="n">
-        <v>0.02329</v>
+        <v>0.02763</v>
       </c>
       <c r="E159" t="n">
-        <v>0.00291</v>
+        <v>0.00345</v>
       </c>
       <c r="F159" t="n">
-        <v>1.18644</v>
+        <v>1.19454</v>
       </c>
       <c r="G159" t="n">
         <v>0.85</v>
@@ -4591,16 +4591,16 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04579</v>
+        <v>0.04896</v>
       </c>
       <c r="E160" t="n">
-        <v>0.00572</v>
+        <v>0.00612</v>
       </c>
       <c r="F160" t="n">
-        <v>1.25127</v>
+        <v>1.34234</v>
       </c>
       <c r="G160" t="n">
         <v>0.85</v>
@@ -4617,16 +4617,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D161" t="n">
-        <v>0.01509</v>
+        <v>0.01829</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00189</v>
+        <v>0.00229</v>
       </c>
       <c r="F161" t="n">
-        <v>0.75071</v>
+        <v>0.86682</v>
       </c>
       <c r="G161" t="n">
         <v>0.85</v>
@@ -4643,16 +4643,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="n">
-        <v>0.02899</v>
+        <v>0.04382</v>
       </c>
       <c r="E162" t="n">
-        <v>0.0029</v>
+        <v>0.00438</v>
       </c>
       <c r="F162" t="n">
-        <v>1.20977</v>
+        <v>1.05543</v>
       </c>
       <c r="G162" t="n">
         <v>0.85</v>
@@ -4669,16 +4669,16 @@
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D163" t="n">
-        <v>0.04652</v>
+        <v>0.02884</v>
       </c>
       <c r="E163" t="n">
-        <v>0.00465</v>
+        <v>0.00288</v>
       </c>
       <c r="F163" t="n">
-        <v>2.35908</v>
+        <v>1.04576</v>
       </c>
       <c r="G163" t="n">
         <v>0.85</v>
@@ -4695,16 +4695,16 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0528</v>
+        <v>0.02618</v>
       </c>
       <c r="E164" t="n">
-        <v>0.00528</v>
+        <v>0.00262</v>
       </c>
       <c r="F164" t="n">
-        <v>1.33245</v>
+        <v>0.98892</v>
       </c>
       <c r="G164" t="n">
         <v>0.85</v>
@@ -4721,16 +4721,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>0.05502</v>
+        <v>0.02141</v>
       </c>
       <c r="E165" t="n">
-        <v>0.0055</v>
+        <v>0.00214</v>
       </c>
       <c r="F165" t="n">
-        <v>1.51518</v>
+        <v>0.88823</v>
       </c>
       <c r="G165" t="n">
         <v>0.85</v>
@@ -4750,13 +4750,13 @@
         <v>17</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03703</v>
+        <v>0.06514</v>
       </c>
       <c r="E166" t="n">
-        <v>0.0037</v>
+        <v>0.00651</v>
       </c>
       <c r="F166" t="n">
-        <v>1.7348</v>
+        <v>1.60015</v>
       </c>
       <c r="G166" t="n">
         <v>0.85</v>
@@ -4773,16 +4773,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03047</v>
+        <v>0.04795</v>
       </c>
       <c r="E167" t="n">
-        <v>0.00305</v>
+        <v>0.0048</v>
       </c>
       <c r="F167" t="n">
-        <v>1.60241</v>
+        <v>1.47011</v>
       </c>
       <c r="G167" t="n">
         <v>0.85</v>
@@ -4799,16 +4799,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09558999999999999</v>
+        <v>0.07124</v>
       </c>
       <c r="E168" t="n">
-        <v>0.009560000000000001</v>
+        <v>0.00712</v>
       </c>
       <c r="F168" t="n">
-        <v>1.9383</v>
+        <v>2.02038</v>
       </c>
       <c r="G168" t="n">
         <v>0.85</v>
@@ -4825,16 +4825,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D169" t="n">
-        <v>0.02748</v>
+        <v>0.06301</v>
       </c>
       <c r="E169" t="n">
-        <v>0.00275</v>
+        <v>0.0063</v>
       </c>
       <c r="F169" t="n">
-        <v>1.07875</v>
+        <v>1.53204</v>
       </c>
       <c r="G169" t="n">
         <v>0.85</v>
@@ -4851,16 +4851,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D170" t="n">
-        <v>0.02736</v>
+        <v>0.01526</v>
       </c>
       <c r="E170" t="n">
-        <v>0.00274</v>
+        <v>0.00153</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9391</v>
+        <v>0.71562</v>
       </c>
       <c r="G170" t="n">
         <v>0.85</v>
@@ -4877,16 +4877,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0167</v>
+        <v>0.04036</v>
       </c>
       <c r="E171" t="n">
-        <v>0.00167</v>
+        <v>0.00404</v>
       </c>
       <c r="F171" t="n">
-        <v>0.76854</v>
+        <v>1.56105</v>
       </c>
       <c r="G171" t="n">
         <v>0.85</v>
@@ -4903,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D172" t="n">
-        <v>0.07366</v>
+        <v>0.0282</v>
       </c>
       <c r="E172" t="n">
-        <v>0.00737</v>
+        <v>0.00282</v>
       </c>
       <c r="F172" t="n">
-        <v>1.54511</v>
+        <v>1.03195</v>
       </c>
       <c r="G172" t="n">
         <v>0.85</v>
@@ -4932,13 +4932,13 @@
         <v>13</v>
       </c>
       <c r="D173" t="n">
-        <v>0.03143</v>
+        <v>0.0463</v>
       </c>
       <c r="E173" t="n">
-        <v>0.00314</v>
+        <v>0.00463</v>
       </c>
       <c r="F173" t="n">
-        <v>1.01053</v>
+        <v>1.16677</v>
       </c>
       <c r="G173" t="n">
         <v>0.85</v>
@@ -4955,16 +4955,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D174" t="n">
-        <v>0.03285</v>
+        <v>0.03067</v>
       </c>
       <c r="E174" t="n">
-        <v>0.00328</v>
+        <v>0.00307</v>
       </c>
       <c r="F174" t="n">
-        <v>1.27776</v>
+        <v>0.7629</v>
       </c>
       <c r="G174" t="n">
         <v>0.85</v>
@@ -4981,16 +4981,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D175" t="n">
-        <v>0.01687</v>
+        <v>0.05713</v>
       </c>
       <c r="E175" t="n">
-        <v>0.00169</v>
+        <v>0.00571</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9901</v>
+        <v>1.56159</v>
       </c>
       <c r="G175" t="n">
         <v>0.85</v>
@@ -5007,16 +5007,16 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05834</v>
+        <v>0.06271</v>
       </c>
       <c r="E176" t="n">
-        <v>0.00583</v>
+        <v>0.00627</v>
       </c>
       <c r="F176" t="n">
-        <v>1.33557</v>
+        <v>2.13213</v>
       </c>
       <c r="G176" t="n">
         <v>0.85</v>
@@ -5033,16 +5033,16 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D177" t="n">
-        <v>0.096</v>
+        <v>0.06254999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.00626</v>
       </c>
       <c r="F177" t="n">
-        <v>2.06427</v>
+        <v>2.21447</v>
       </c>
       <c r="G177" t="n">
         <v>0.85</v>
@@ -5059,16 +5059,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D178" t="n">
-        <v>0.06942</v>
+        <v>0.02834</v>
       </c>
       <c r="E178" t="n">
-        <v>0.00694</v>
+        <v>0.00283</v>
       </c>
       <c r="F178" t="n">
-        <v>2.4596</v>
+        <v>1.15977</v>
       </c>
       <c r="G178" t="n">
         <v>0.85</v>
@@ -5085,16 +5085,16 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D179" t="n">
-        <v>0.10127</v>
+        <v>0.06653000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>0.01013</v>
+        <v>0.00665</v>
       </c>
       <c r="F179" t="n">
-        <v>2.69278</v>
+        <v>2.34879</v>
       </c>
       <c r="G179" t="n">
         <v>0.85</v>
@@ -5111,16 +5111,16 @@
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D180" t="n">
-        <v>0.06311</v>
+        <v>0.03203</v>
       </c>
       <c r="E180" t="n">
-        <v>0.00631</v>
+        <v>0.0032</v>
       </c>
       <c r="F180" t="n">
-        <v>1.63663</v>
+        <v>1.11972</v>
       </c>
       <c r="G180" t="n">
         <v>0.85</v>
@@ -5137,16 +5137,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D181" t="n">
-        <v>0.09565</v>
+        <v>0.03277</v>
       </c>
       <c r="E181" t="n">
-        <v>0.009560000000000001</v>
+        <v>0.00328</v>
       </c>
       <c r="F181" t="n">
-        <v>2.02299</v>
+        <v>1.28641</v>
       </c>
       <c r="G181" t="n">
         <v>0.85</v>
@@ -5163,16 +5163,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D182" t="n">
-        <v>0.10927</v>
+        <v>0.05507</v>
       </c>
       <c r="E182" t="n">
-        <v>0.01093</v>
+        <v>0.00551</v>
       </c>
       <c r="F182" t="n">
-        <v>3.14371</v>
+        <v>1.45901</v>
       </c>
       <c r="G182" t="n">
         <v>0.15</v>
@@ -5189,16 +5189,16 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
-        <v>0.13193</v>
+        <v>0.11695</v>
       </c>
       <c r="E183" t="n">
-        <v>0.01319</v>
+        <v>0.0117</v>
       </c>
       <c r="F183" t="n">
-        <v>1.8505</v>
+        <v>1.58144</v>
       </c>
       <c r="G183" t="n">
         <v>0.15</v>
@@ -5215,16 +5215,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>0.07504</v>
+        <v>0.04331</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0075</v>
+        <v>0.00433</v>
       </c>
       <c r="F184" t="n">
-        <v>1.25715</v>
+        <v>1.06862</v>
       </c>
       <c r="G184" t="n">
         <v>0.15</v>
@@ -5244,13 +5244,13 @@
         <v>9</v>
       </c>
       <c r="D185" t="n">
-        <v>0.13983</v>
+        <v>0.19852</v>
       </c>
       <c r="E185" t="n">
-        <v>0.01398</v>
+        <v>0.01985</v>
       </c>
       <c r="F185" t="n">
-        <v>1.99793</v>
+        <v>3.35894</v>
       </c>
       <c r="G185" t="n">
         <v>0.15</v>
@@ -5267,16 +5267,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.08814</v>
+        <v>0.13863</v>
       </c>
       <c r="E186" t="n">
-        <v>0.00881</v>
+        <v>0.01386</v>
       </c>
       <c r="F186" t="n">
-        <v>1.49206</v>
+        <v>1.96346</v>
       </c>
       <c r="G186" t="n">
         <v>0.15</v>
@@ -5293,16 +5293,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03921</v>
+        <v>0.23012</v>
       </c>
       <c r="E187" t="n">
-        <v>0.00392</v>
+        <v>0.02301</v>
       </c>
       <c r="F187" t="n">
-        <v>1.15351</v>
+        <v>4.69492</v>
       </c>
       <c r="G187" t="n">
         <v>0.15</v>
@@ -5319,16 +5319,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D188" t="n">
-        <v>0.06172</v>
+        <v>0.15338</v>
       </c>
       <c r="E188" t="n">
-        <v>0.00617</v>
+        <v>0.01534</v>
       </c>
       <c r="F188" t="n">
-        <v>1.99467</v>
+        <v>3.1658</v>
       </c>
       <c r="G188" t="n">
         <v>0.15</v>
@@ -5345,16 +5345,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D189" t="n">
-        <v>0.10306</v>
+        <v>0.09843</v>
       </c>
       <c r="E189" t="n">
-        <v>0.01031</v>
+        <v>0.00984</v>
       </c>
       <c r="F189" t="n">
-        <v>2.27464</v>
+        <v>2.21077</v>
       </c>
       <c r="G189" t="n">
         <v>0.15</v>
@@ -5371,16 +5371,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D190" t="n">
-        <v>0.13976</v>
+        <v>0.11159</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01398</v>
+        <v>0.01116</v>
       </c>
       <c r="F190" t="n">
-        <v>1.80828</v>
+        <v>3.34647</v>
       </c>
       <c r="G190" t="n">
         <v>0.15</v>
@@ -5397,16 +5397,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="n">
-        <v>0.14088</v>
+        <v>0.12057</v>
       </c>
       <c r="E191" t="n">
-        <v>0.01409</v>
+        <v>0.01206</v>
       </c>
       <c r="F191" t="n">
-        <v>2.06502</v>
+        <v>2.59422</v>
       </c>
       <c r="G191" t="n">
         <v>0.15</v>
@@ -5423,16 +5423,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D192" t="n">
-        <v>0.13511</v>
+        <v>0.0701</v>
       </c>
       <c r="E192" t="n">
-        <v>0.01351</v>
+        <v>0.00701</v>
       </c>
       <c r="F192" t="n">
-        <v>2.16861</v>
+        <v>2.14543</v>
       </c>
       <c r="G192" t="n">
         <v>0.15</v>
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D193" t="n">
-        <v>0.08497</v>
+        <v>0.09114999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.00911</v>
       </c>
       <c r="F193" t="n">
-        <v>2.45808</v>
+        <v>2.46539</v>
       </c>
       <c r="G193" t="n">
         <v>0.15</v>
@@ -5475,16 +5475,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D194" t="n">
-        <v>0.20741</v>
+        <v>0.22757</v>
       </c>
       <c r="E194" t="n">
-        <v>0.02074</v>
+        <v>0.02276</v>
       </c>
       <c r="F194" t="n">
-        <v>2.73173</v>
+        <v>1.90552</v>
       </c>
       <c r="G194" t="n">
         <v>0.15</v>
@@ -5501,16 +5501,16 @@
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D195" t="n">
-        <v>0.19536</v>
+        <v>0.13696</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01954</v>
+        <v>0.0137</v>
       </c>
       <c r="F195" t="n">
-        <v>2.85522</v>
+        <v>1.86555</v>
       </c>
       <c r="G195" t="n">
         <v>0.15</v>
@@ -5527,16 +5527,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="n">
-        <v>0.12803</v>
+        <v>0.15886</v>
       </c>
       <c r="E196" t="n">
-        <v>0.0128</v>
+        <v>0.01589</v>
       </c>
       <c r="F196" t="n">
-        <v>2.38352</v>
+        <v>2.98977</v>
       </c>
       <c r="G196" t="n">
         <v>0.15</v>
@@ -5553,16 +5553,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D197" t="n">
-        <v>0.23233</v>
+        <v>0.13744</v>
       </c>
       <c r="E197" t="n">
-        <v>0.02323</v>
+        <v>0.01374</v>
       </c>
       <c r="F197" t="n">
-        <v>3.7855</v>
+        <v>1.63019</v>
       </c>
       <c r="G197" t="n">
         <v>0.15</v>
@@ -5579,16 +5579,16 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>0.1621</v>
+        <v>0.16848</v>
       </c>
       <c r="E198" t="n">
-        <v>0.01621</v>
+        <v>0.01685</v>
       </c>
       <c r="F198" t="n">
-        <v>4.63564</v>
+        <v>2.34171</v>
       </c>
       <c r="G198" t="n">
         <v>0.15</v>
@@ -5605,16 +5605,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D199" t="n">
-        <v>0.06643</v>
+        <v>0.11423</v>
       </c>
       <c r="E199" t="n">
-        <v>0.00664</v>
+        <v>0.01142</v>
       </c>
       <c r="F199" t="n">
-        <v>1.70545</v>
+        <v>3.02307</v>
       </c>
       <c r="G199" t="n">
         <v>0.15</v>
@@ -5631,16 +5631,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D200" t="n">
-        <v>0.19316</v>
+        <v>0.07865</v>
       </c>
       <c r="E200" t="n">
-        <v>0.01932</v>
+        <v>0.00787</v>
       </c>
       <c r="F200" t="n">
-        <v>3.56546</v>
+        <v>1.5835</v>
       </c>
       <c r="G200" t="n">
         <v>0.15</v>
@@ -5660,13 +5660,13 @@
         <v>11</v>
       </c>
       <c r="D201" t="n">
-        <v>0.12928</v>
+        <v>0.09807</v>
       </c>
       <c r="E201" t="n">
-        <v>0.01293</v>
+        <v>0.009809999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>2.85024</v>
+        <v>2.14045</v>
       </c>
       <c r="G201" t="n">
         <v>0.15</v>
